--- a/7 Visualizations/Visualizations - 2. Line and Combo Charts.xlsx
+++ b/7 Visualizations/Visualizations - 2. Line and Combo Charts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Analyst Builder\9.0 Excel for Data Analysis\8. Visualizations\Final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smcgb\excel-for-data-analysis\7 Visualizations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{14DAEC94-DD7D-4C85-BF0C-A2508E03EC58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EAF325B-C55F-4AD4-A93C-65BE25DECF8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14620" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Line Chart" sheetId="2" r:id="rId1"/>
@@ -170,6 +170,3404 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Line Chart'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Books Checked Out</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Line Chart'!$A$2:$A$32</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>45200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45201</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45202</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45203</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45204</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45205</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45206</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45207</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45208</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45209</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45210</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45211</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45212</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45213</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45214</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45215</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45216</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45217</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45218</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45219</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>45220</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45221</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45222</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45223</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45224</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45225</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45226</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45227</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45228</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45229</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45230</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Line Chart'!$B$2:$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7E4E-4B14-A541-E9C3D981C8D9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Line Chart'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Books Checked In</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Line Chart'!$A$2:$A$32</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>45200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45201</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45202</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45203</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45204</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45205</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45206</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45207</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45208</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45209</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45210</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45211</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45212</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45213</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45214</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45215</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45216</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45217</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45218</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45219</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>45220</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45221</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45222</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45223</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45224</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45225</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45226</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45227</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45228</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45229</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45230</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Line Chart'!$C$2:$C$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7E4E-4B14-A541-E9C3D981C8D9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1603064112"/>
+        <c:axId val="1603063152"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="1603064112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1603063152"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="1603063152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1603064112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Projected and</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Actual Revenue</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Combo Charts'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Actual Revenue</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Combo Charts'!$B$2:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0_);[Red]\("$"#,##0\)</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>154458</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>156754</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>134096</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>126689</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>153974</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>136248</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>165027</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>155769</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>120152</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>133487</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>152582</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>138924</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B518-4E70-B4C8-A6351981034D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1603054992"/>
+        <c:axId val="1603034832"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Combo Charts'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Projected Revenue</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Combo Charts'!$C$2:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0_);[Red]\("$"#,##0\)</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>130000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>130000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>140000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>130000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>160000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>120000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>180000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>180000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>140000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>170000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>170000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B518-4E70-B4C8-A6351981034D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1603054992"/>
+        <c:axId val="1603034832"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1603054992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1603034832"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1603034832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1603054992"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Projected and</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Actual Revenue</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Combo Charts'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Actual Revenue</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Combo Charts'!$B$2:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0_);[Red]\("$"#,##0\)</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>154458</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>156754</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>134096</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>126689</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>153974</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>136248</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>165027</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>155769</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>120152</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>133487</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>152582</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>138924</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B993-461C-B71A-69EC3C80A267}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1603054992"/>
+        <c:axId val="1603034832"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Combo Charts'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Projected Revenue</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Combo Charts'!$C$2:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0_);[Red]\("$"#,##0\)</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>130000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>130000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>140000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>130000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>160000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>120000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>180000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>180000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>140000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>170000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>170000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B993-461C-B71A-69EC3C80A267}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1603054992"/>
+        <c:axId val="1603034832"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1603054992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1603034832"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1603034832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1603054992"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>795449</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>119516</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>759731</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>124732</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D07C33A-9810-D498-018A-0A48ADD5CCD2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>180731</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>80214</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>895512</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>21709</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD5651BF-871E-52CE-C48E-61F7056289CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>184529</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>255086</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>54272</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6B90C-5F88-4CB6-AD3C-29A8533EE323}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -435,8 +3833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView zoomScale="112" zoomScaleNormal="150" workbookViewId="0">
+      <selection sqref="A1:C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -800,6 +4198,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -807,8 +4206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A9C48FE-312B-4925-97AD-435A1E95E20C}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="117" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="117" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -958,5 +4357,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>